--- a/5월/18회차_실습체크리스트_맹민재_.xlsx
+++ b/5월/18회차_실습체크리스트_맹민재_.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="21345" windowHeight="8625"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="28545" windowHeight="11325"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId4"/>
@@ -21,66 +21,63 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
   <x:si>
-    <x:t>02 NoSQL 기반 MongoDB</x:t>
+    <x:t>01_mysql(기본)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>02_mongo(심화)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06_mysql(기본)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08_mysql(심화)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01_mongo(기본)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>04_mysql(심화)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제출일자: 5월 28일(수)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>07_mysql(기본)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06 인덱스, 사용자 관리</x:t>
   </x:si>
   <x:si>
     <x:t>07_mysql(심화)</x:t>
   </x:si>
   <x:si>
+    <x:t>02_mysql(심화)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>03_mysql(심화)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>02_mongo(기본)</x:t>
+  </x:si>
+  <x:si>
     <x:t>02_mysql(기본)</x:t>
   </x:si>
   <x:si>
-    <x:t>제출일자: 5월 28일(수)</x:t>
+    <x:t>06_mysql(심화)</x:t>
   </x:si>
   <x:si>
     <x:t>05_mysql(기본)</x:t>
   </x:si>
   <x:si>
-    <x:t>04_mysql(심화)</x:t>
-  </x:si>
-  <x:si>
     <x:t>05_mysql(심화)</x:t>
   </x:si>
   <x:si>
-    <x:t>08_mysql(심화)</x:t>
+    <x:t>01_mysql(심화)</x:t>
   </x:si>
   <x:si>
     <x:t>08_mysql(기본)</x:t>
   </x:si>
   <x:si>
-    <x:t>07_mysql(기본)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>06_mysql(기본)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>06 인덱스, 사용자 관리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>02_mysql(심화)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>01_mongo(기본)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>01_mysql(심화)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>03_mysql(심화)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>01_mysql(기본)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>06_mysql(심화)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>02_mongo(기본)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>02_mongo(심화)</x:t>
-  </x:si>
-  <x:si>
     <x:t>01_mongo(심화)</x:t>
   </x:si>
   <x:si>
@@ -93,29 +90,7 @@
     <x:t>04_mysql(기본)</x:t>
   </x:si>
   <x:si>
-    <x:t>실습한 단원의 항목은 v 체크해주세요.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>07 Java 연동 JDBC 프로그래밍</x:t>
-  </x:si>
-  <x:si>
-    <x:t>실습 디렉터리</x:t>
-  </x:si>
-  <x:si>
     <x:t>깃허브 주소: https://github.com/Mminjae/Practice.git</x:t>
-  </x:si>
-  <x:si>
-    <x:t>01 MySQL 기반
-RDBMS 활용과 JDBC</x:t>
-  </x:si>
-  <x:si>
-    <x:t>01 DBMS 개요, 설치, 전체 운영 실습</x:t>
-  </x:si>
-  <x:si>
-    <x:t>02 데이터베이스 모델링, MySQL 유틸리티 사용법</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08 Java 연동 JDBC 프로그래밍-Travel</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -145,11 +120,26 @@
       <x:t>기본문제는</x:t>
     </x:r>
     <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="8"/>
-        <x:color rgb="ffa61c00"/>
-      </x:rPr>
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+          <x:rPr hs:extension="1">
+            <x:rFont val="Arial"/>
+            <x:sz val="8"/>
+            <x:color rgb="ffa61c00"/>
+            <hs:size val="100"/>
+            <hs:ratio val="100"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:rPr>
+        </mc:Choice>
+        <mc:Fallback>
+          <x:rPr>
+            <x:rFont val="Arial"/>
+            <x:sz val="8"/>
+            <x:color rgb="ffa61c00"/>
+          </x:rPr>
+        </mc:Fallback>
+      </mc:AlternateContent>
       <x:t xml:space="preserve"> </x:t>
     </x:r>
     <x:r>
@@ -204,11 +194,26 @@
       <x:t>로</x:t>
     </x:r>
     <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="8"/>
-        <x:color rgb="ffa61c00"/>
-      </x:rPr>
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+          <x:rPr hs:extension="1">
+            <x:rFont val="Arial"/>
+            <x:sz val="8"/>
+            <x:color rgb="ffa61c00"/>
+            <hs:size val="100"/>
+            <hs:ratio val="100"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:rPr>
+        </mc:Choice>
+        <mc:Fallback>
+          <x:rPr>
+            <x:rFont val="Arial"/>
+            <x:sz val="8"/>
+            <x:color rgb="ffa61c00"/>
+          </x:rPr>
+        </mc:Fallback>
+      </mc:AlternateContent>
       <x:t xml:space="preserve">, </x:t>
     </x:r>
     <x:r>
@@ -235,11 +240,26 @@
       <x:t>심화문제는</x:t>
     </x:r>
     <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="8"/>
-        <x:color rgb="ffa61c00"/>
-      </x:rPr>
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+          <x:rPr hs:extension="1">
+            <x:rFont val="Arial"/>
+            <x:sz val="8"/>
+            <x:color rgb="ffa61c00"/>
+            <hs:size val="100"/>
+            <hs:ratio val="100"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:rPr>
+        </mc:Choice>
+        <mc:Fallback>
+          <x:rPr>
+            <x:rFont val="Arial"/>
+            <x:sz val="8"/>
+            <x:color rgb="ffa61c00"/>
+          </x:rPr>
+        </mc:Fallback>
+      </mc:AlternateContent>
       <x:t xml:space="preserve"> </x:t>
     </x:r>
     <x:r>
@@ -294,11 +314,26 @@
       <x:t>으로</x:t>
     </x:r>
     <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="8"/>
-        <x:color rgb="ffa61c00"/>
-      </x:rPr>
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+          <x:rPr hs:extension="1">
+            <x:rFont val="Arial"/>
+            <x:sz val="8"/>
+            <x:color rgb="ffa61c00"/>
+            <hs:size val="100"/>
+            <hs:ratio val="100"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:rPr>
+        </mc:Choice>
+        <mc:Fallback>
+          <x:rPr>
+            <x:rFont val="Arial"/>
+            <x:sz val="8"/>
+            <x:color rgb="ffa61c00"/>
+          </x:rPr>
+        </mc:Fallback>
+      </mc:AlternateContent>
       <x:t xml:space="preserve"> </x:t>
     </x:r>
     <x:r>
@@ -325,11 +360,26 @@
       <x:t>풀어보는</x:t>
     </x:r>
     <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="8"/>
-        <x:color rgb="ffa61c00"/>
-      </x:rPr>
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+          <x:rPr hs:extension="1">
+            <x:rFont val="Arial"/>
+            <x:sz val="8"/>
+            <x:color rgb="ffa61c00"/>
+            <hs:size val="100"/>
+            <hs:ratio val="100"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:rPr>
+        </mc:Choice>
+        <mc:Fallback>
+          <x:rPr>
+            <x:rFont val="Arial"/>
+            <x:sz val="8"/>
+            <x:color rgb="ffa61c00"/>
+          </x:rPr>
+        </mc:Fallback>
+      </mc:AlternateContent>
       <x:t xml:space="preserve"> </x:t>
     </x:r>
     <x:r>
@@ -356,43 +406,83 @@
       <x:t>파트입니다</x:t>
     </x:r>
     <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="8"/>
-        <x:color rgb="ffa61c00"/>
-      </x:rPr>
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+          <x:rPr hs:extension="1">
+            <x:rFont val="Arial"/>
+            <x:sz val="8"/>
+            <x:color rgb="ffa61c00"/>
+            <hs:size val="100"/>
+            <hs:ratio val="100"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:rPr>
+        </mc:Choice>
+        <mc:Fallback>
+          <x:rPr>
+            <x:rFont val="Arial"/>
+            <x:sz val="8"/>
+            <x:color rgb="ffa61c00"/>
+          </x:rPr>
+        </mc:Fallback>
+      </mc:AlternateContent>
       <x:t>.</x:t>
     </x:r>
   </x:si>
   <x:si>
+    <x:t>이름 : 홍길동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01 MongoDB</x:t>
+  </x:si>
+  <x:si>
+    <x:t>03 SQL 기본</x:t>
+  </x:si>
+  <x:si>
+    <x:t>04 SQL 고급</x:t>
+  </x:si>
+  <x:si>
     <x:t>실습 체크 리스트</x:t>
   </x:si>
   <x:si>
-    <x:t>03 SQL 기본</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이름 : 홍길동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>01 MongoDB</x:t>
-  </x:si>
-  <x:si>
     <x:t>05 테이블, 뷰</x:t>
   </x:si>
   <x:si>
-    <x:t>04 SQL 고급</x:t>
+    <x:t>02 NoSQL 기반 MongoDB</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08 Java 연동 JDBC 프로그래밍-Travel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>02 데이터베이스 모델링, MySQL 유틸리티 사용법</x:t>
+  </x:si>
+  <x:si>
+    <x:t>실습한 단원의 항목은 v 체크해주세요.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>07 Java 연동 JDBC 프로그래밍</x:t>
+  </x:si>
+  <x:si>
+    <x:t>실습 디렉터리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>단원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>심화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기본</x:t>
   </x:si>
   <x:si>
     <x:t>항목</x:t>
   </x:si>
   <x:si>
-    <x:t>심화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>단원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기본</x:t>
+    <x:t>01 MySQL 기반
+RDBMS 활용과 JDBC</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01 DBMS 개요, 설치, 전체 운영 실습</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -441,11 +531,90 @@
       <x:sz val="8"/>
       <x:color rgb="ffffffff"/>
     </x:font>
+    <x:font>
+      <x:name val="Malgun Gothic"/>
+      <x:sz val="8"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
+    <x:font>
+      <x:name val="Malgun Gothic"/>
+      <x:sz val="7"/>
+      <x:color rgb="ff666666"/>
+    </x:font>
+    <x:font>
+      <x:name val="Malgun Gothic"/>
+      <x:sz val="7"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:font hs:extension="1">
           <x:name val="Malgun Gothic"/>
+          <x:sz val="13"/>
+          <x:color rgb="ffffffff"/>
+          <x:b val="1"/>
+          <hs:size val="100"/>
+          <hs:ratio val="100"/>
+          <hs:spacing val="0"/>
+          <hs:offset val="0"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="Malgun Gothic"/>
+          <x:sz val="13"/>
+          <x:color rgb="ffffffff"/>
+          <x:b val="1"/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="Arial"/>
           <x:sz val="8"/>
+          <x:color rgb="ffa61c00"/>
+          <hs:size val="100"/>
+          <hs:ratio val="100"/>
+          <hs:spacing val="0"/>
+          <hs:offset val="0"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="Arial"/>
+          <x:sz val="8"/>
+          <x:color rgb="ffa61c00"/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="Malgun Gothic"/>
+          <x:sz val="10"/>
+          <x:color rgb="ff000000"/>
+          <x:b val="1"/>
+          <hs:size val="100"/>
+          <hs:ratio val="100"/>
+          <hs:spacing val="0"/>
+          <hs:offset val="0"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="Malgun Gothic"/>
+          <x:sz val="10"/>
+          <x:color rgb="ff000000"/>
+          <x:b val="1"/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="맑은 고딕"/>
+          <x:sz val="10"/>
           <x:color rgb="ff000000"/>
           <hs:size val="100"/>
           <hs:ratio val="100"/>
@@ -455,48 +624,8 @@
       </mc:Choice>
       <mc:Fallback>
         <x:font>
-          <x:name val="Malgun Gothic"/>
-          <x:sz val="8"/>
-          <x:color rgb="ff000000"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="Malgun Gothic"/>
-          <x:sz val="7"/>
-          <x:color rgb="ff666666"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="Malgun Gothic"/>
-          <x:sz val="7"/>
-          <x:color rgb="ff666666"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="Malgun Gothic"/>
-          <x:sz val="7"/>
-          <x:color rgb="ff000000"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="Malgun Gothic"/>
-          <x:sz val="7"/>
+          <x:name val="맑은 고딕"/>
+          <x:sz val="10"/>
           <x:color rgb="ff000000"/>
         </x:font>
       </mc:Fallback>
@@ -523,43 +652,6 @@
         </x:font>
       </mc:Fallback>
     </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="맑은 고딕"/>
-          <x:sz val="10"/>
-          <x:color rgb="ff000000"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="맑은 고딕"/>
-          <x:sz val="10"/>
-          <x:color rgb="ff000000"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <x:font>
-      <x:name val="Malgun Gothic"/>
-      <x:sz val="13"/>
-      <x:color rgb="ffffffff"/>
-      <x:b val="1"/>
-    </x:font>
-    <x:font>
-      <x:name val="Arial"/>
-      <x:sz val="8"/>
-      <x:color rgb="ffa61c00"/>
-    </x:font>
-    <x:font>
-      <x:name val="Malgun Gothic"/>
-      <x:sz val="10"/>
-      <x:color rgb="ff000000"/>
-      <x:b val="1"/>
-    </x:font>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:font hs:extension="1">
@@ -686,13 +778,13 @@
       </x:bottom>
     </x:border>
     <x:border>
-      <x:left>
-        <x:color auto="1"/>
+      <x:left style="medium">
+        <x:color rgb="ffffffff"/>
       </x:left>
       <x:right>
         <x:color auto="1"/>
       </x:right>
-      <x:top style="thin">
+      <x:top>
         <x:color auto="1"/>
       </x:top>
       <x:bottom>
@@ -709,20 +801,6 @@
       <x:top>
         <x:color auto="1"/>
       </x:top>
-      <x:bottom>
-        <x:color auto="1"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left style="medium">
-        <x:color rgb="ffffffff"/>
-      </x:left>
-      <x:right>
-        <x:color auto="1"/>
-      </x:right>
-      <x:top>
-        <x:color auto="1"/>
-      </x:top>
       <x:bottom style="thin">
         <x:color auto="1"/>
       </x:bottom>
@@ -780,6 +858,20 @@
         <x:color auto="1"/>
       </x:top>
       <x:bottom style="thin">
+        <x:color auto="1"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left>
+        <x:color auto="1"/>
+      </x:left>
+      <x:right>
+        <x:color auto="1"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color auto="1"/>
+      </x:top>
+      <x:bottom>
         <x:color auto="1"/>
       </x:bottom>
     </x:border>
@@ -889,157 +981,157 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="13" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="13" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="13" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="13" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="13" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="13" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="13" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="13" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="15" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="15" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="15" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="15" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="15" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="15" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="15" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="15" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
@@ -1345,8 +1437,8 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="A1:F17"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="130" zoomScaleNormal="75" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <x:selection activeCell="H2" activeCellId="0" sqref="H2:H2"/>
+    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <x:selection activeCell="C9" activeCellId="0" sqref="C9:C9"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9" defaultRowHeight="16.39999999999999857891"/>
@@ -1358,110 +1450,110 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:6" ht="19.25">
-      <x:c r="A1" s="12" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="B1" s="13"/>
-      <x:c r="C1" s="13"/>
-      <x:c r="D1" s="13"/>
-      <x:c r="E1" s="13"/>
-      <x:c r="F1" s="13"/>
+      <x:c r="A1" s="9" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="B1" s="10"/>
+      <x:c r="C1" s="10"/>
+      <x:c r="D1" s="10"/>
+      <x:c r="E1" s="10"/>
+      <x:c r="F1" s="10"/>
     </x:row>
     <x:row r="2" spans="1:6">
-      <x:c r="A2" s="14" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="B2" s="15"/>
-      <x:c r="C2" s="15"/>
-      <x:c r="D2" s="15"/>
-      <x:c r="E2" s="15"/>
-      <x:c r="F2" s="15"/>
+      <x:c r="A2" s="11" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B2" s="12"/>
+      <x:c r="C2" s="12"/>
+      <x:c r="D2" s="12"/>
+      <x:c r="E2" s="12"/>
+      <x:c r="F2" s="12"/>
     </x:row>
     <x:row r="3" spans="1:6" ht="27" customHeight="1">
-      <x:c r="A3" s="18" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="B3" s="19"/>
-      <x:c r="C3" s="19"/>
-      <x:c r="D3" s="20"/>
+      <x:c r="A3" s="13" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="B3" s="14"/>
+      <x:c r="C3" s="14"/>
+      <x:c r="D3" s="15"/>
       <x:c r="E3" s="16" t="s">
-        <x:v>26</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="F3" s="16"/>
     </x:row>
     <x:row r="4" spans="1:6">
       <x:c r="A4" s="1" t="s">
-        <x:v>41</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="B4" s="1" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="C4" s="2" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="C4" s="2" t="s">
-        <x:v>42</x:v>
-      </x:c>
       <x:c r="D4" s="3" t="s">
-        <x:v>40</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="E4" s="2" t="s">
-        <x:v>42</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F4" s="3" t="s">
-        <x:v>40</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:6">
       <x:c r="A5" s="17" t="s">
-        <x:v>28</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="B5" s="4" t="s">
-        <x:v>29</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="C5" s="5"/>
       <x:c r="D5" s="6"/>
       <x:c r="E5" s="7" t="s">
-        <x:v>16</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F5" s="8" t="s">
-        <x:v>14</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:6">
       <x:c r="A6" s="17"/>
       <x:c r="B6" s="4" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C6" s="5"/>
       <x:c r="D6" s="6"/>
       <x:c r="E6" s="7" t="s">
-        <x:v>2</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F6" s="8" t="s">
-        <x:v>12</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:6">
       <x:c r="A7" s="17"/>
       <x:c r="B7" s="4" t="s">
-        <x:v>34</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C7" s="5"/>
       <x:c r="D7" s="6"/>
       <x:c r="E7" s="7" t="s">
-        <x:v>21</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F7" s="8" t="s">
-        <x:v>15</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:6">
       <x:c r="A8" s="17"/>
       <x:c r="B8" s="4" t="s">
-        <x:v>38</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C8" s="5"/>
       <x:c r="D8" s="6"/>
       <x:c r="E8" s="7" t="s">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F8" s="8" t="s">
         <x:v>5</x:v>
@@ -1470,118 +1562,118 @@
     <x:row r="9" spans="1:6">
       <x:c r="A9" s="17"/>
       <x:c r="B9" s="4" t="s">
-        <x:v>37</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C9" s="5"/>
       <x:c r="D9" s="6"/>
       <x:c r="E9" s="7" t="s">
-        <x:v>4</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F9" s="8" t="s">
-        <x:v>6</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:6">
       <x:c r="A10" s="17"/>
       <x:c r="B10" s="4" t="s">
-        <x:v>11</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C10" s="5"/>
       <x:c r="D10" s="6"/>
       <x:c r="E10" s="7" t="s">
-        <x:v>10</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F10" s="8" t="s">
-        <x:v>17</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:6">
       <x:c r="A11" s="17"/>
       <x:c r="B11" s="4" t="s">
-        <x:v>25</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C11" s="5"/>
       <x:c r="D11" s="6"/>
       <x:c r="E11" s="7" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="F11" s="8" t="s">
         <x:v>9</x:v>
-      </x:c>
-      <x:c r="F11" s="8" t="s">
-        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:6">
       <x:c r="A12" s="17"/>
       <x:c r="B12" s="4" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C12" s="5"/>
       <x:c r="D12" s="6"/>
       <x:c r="E12" s="7" t="s">
-        <x:v>8</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F12" s="8" t="s">
-        <x:v>7</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:6">
       <x:c r="A13" s="17" t="s">
-        <x:v>0</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="B13" s="4" t="s">
-        <x:v>36</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C13" s="5"/>
       <x:c r="D13" s="6"/>
       <x:c r="E13" s="7" t="s">
-        <x:v>13</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F13" s="8" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:6">
       <x:c r="A14" s="17"/>
       <x:c r="B14" s="4" t="s">
-        <x:v>22</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C14" s="5"/>
       <x:c r="D14" s="6"/>
       <x:c r="E14" s="7" t="s">
-        <x:v>18</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F14" s="8" t="s">
-        <x:v>19</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:6">
-      <x:c r="A15" s="11" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="B15" s="11"/>
-      <x:c r="C15" s="11"/>
-      <x:c r="D15" s="11"/>
-      <x:c r="E15" s="11"/>
-      <x:c r="F15" s="11"/>
+      <x:c r="A15" s="18" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B15" s="18"/>
+      <x:c r="C15" s="18"/>
+      <x:c r="D15" s="18"/>
+      <x:c r="E15" s="18"/>
+      <x:c r="F15" s="18"/>
     </x:row>
     <x:row r="16" spans="1:6">
-      <x:c r="A16" s="10" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="B16" s="10"/>
-      <x:c r="C16" s="10"/>
-      <x:c r="D16" s="10"/>
-      <x:c r="E16" s="10"/>
-      <x:c r="F16" s="10"/>
+      <x:c r="A16" s="19" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="B16" s="19"/>
+      <x:c r="C16" s="19"/>
+      <x:c r="D16" s="19"/>
+      <x:c r="E16" s="19"/>
+      <x:c r="F16" s="19"/>
     </x:row>
     <x:row r="17" spans="1:6">
-      <x:c r="A17" s="9" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B17" s="9"/>
-      <x:c r="C17" s="9"/>
-      <x:c r="D17" s="9"/>
-      <x:c r="E17" s="9"/>
-      <x:c r="F17" s="9"/>
+      <x:c r="A17" s="20" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B17" s="20"/>
+      <x:c r="C17" s="20"/>
+      <x:c r="D17" s="20"/>
+      <x:c r="E17" s="20"/>
+      <x:c r="F17" s="20"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="9">
@@ -1595,7 +1687,7 @@
     <x:mergeCell ref="A16:F16"/>
     <x:mergeCell ref="A17:F17"/>
   </x:mergeCells>
-  <x:pageMargins left="0.69999998807907104492" right="0.69999998807907104492" top="0.75" bottom="0.75" header="0.30000001192092895508" footer="0.30000001192092895508"/>
+  <x:pageMargins left="0.69986110925674438477" right="0.69986110925674438477" top="0.75" bottom="0.75" header="0.30000001192092895508" footer="0.30000001192092895508"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1"/>
   <x:legacyDrawing r:id="rId1"/>

--- a/5월/18회차_실습체크리스트_맹민재_.xlsx
+++ b/5월/18회차_실습체크리스트_맹민재_.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="28545" windowHeight="11325"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="21345" windowHeight="8625"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId4"/>
@@ -21,76 +21,14 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
   <x:si>
-    <x:t>01_mysql(기본)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>02_mongo(심화)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>06_mysql(기본)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08_mysql(심화)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>01_mongo(기본)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>04_mysql(심화)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제출일자: 5월 28일(수)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>07_mysql(기본)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>06 인덱스, 사용자 관리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>07_mysql(심화)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>02_mysql(심화)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>03_mysql(심화)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>02_mongo(기본)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>02_mysql(기본)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>06_mysql(심화)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>05_mysql(기본)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>05_mysql(심화)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>01_mysql(심화)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08_mysql(기본)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>01_mongo(심화)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>03_mysql(기본)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>02 몽고DB Java연동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>04_mysql(기본)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>깃허브 주소: https://github.com/Mminjae/Practice.git</x:t>
+    <x:t>02 NoSQL 기반 MongoDB</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01 MySQL 기반
+RDBMS 활용과 JDBC</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01 DBMS 개요, 설치, 전체 운영 실습</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -430,25 +368,109 @@
     </x:r>
   </x:si>
   <x:si>
+    <x:t>03 SQL 기본</x:t>
+  </x:si>
+  <x:si>
+    <x:t>실습 체크 리스트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05 테이블, 뷰</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01 MongoDB</x:t>
+  </x:si>
+  <x:si>
     <x:t>이름 : 홍길동</x:t>
   </x:si>
   <x:si>
-    <x:t>01 MongoDB</x:t>
-  </x:si>
-  <x:si>
-    <x:t>03 SQL 기본</x:t>
-  </x:si>
-  <x:si>
     <x:t>04 SQL 고급</x:t>
   </x:si>
   <x:si>
-    <x:t>실습 체크 리스트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>05 테이블, 뷰</x:t>
-  </x:si>
-  <x:si>
-    <x:t>02 NoSQL 기반 MongoDB</x:t>
+    <x:t>실습 디렉터리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01_mysql(기본)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>02_mongo(심화)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06_mysql(기본)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08_mysql(심화)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01_mongo(기본)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>04_mysql(심화)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제출일자: 5월 28일(수)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>07_mysql(기본)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>07_mysql(심화)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06 인덱스, 사용자 관리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05_mysql(기본)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06_mysql(심화)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01_mysql(심화)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>02_mysql(기본)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05_mysql(심화)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>02 몽고DB Java연동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>04_mysql(기본)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>02_mongo(기본)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01_mongo(심화)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08_mysql(기본)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>03_mysql(심화)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>03_mysql(기본)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>02_mysql(심화)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>깃허브 주소: https://github.com/Mminjae/Practice.git</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기본</x:t>
+  </x:si>
+  <x:si>
+    <x:t>항목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>단원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>심화</x:t>
   </x:si>
   <x:si>
     <x:t>08 Java 연동 JDBC 프로그래밍-Travel</x:t>
@@ -457,32 +479,10 @@
     <x:t>02 데이터베이스 모델링, MySQL 유틸리티 사용법</x:t>
   </x:si>
   <x:si>
+    <x:t>07 Java 연동 JDBC 프로그래밍</x:t>
+  </x:si>
+  <x:si>
     <x:t>실습한 단원의 항목은 v 체크해주세요.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>07 Java 연동 JDBC 프로그래밍</x:t>
-  </x:si>
-  <x:si>
-    <x:t>실습 디렉터리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>단원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>심화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기본</x:t>
-  </x:si>
-  <x:si>
-    <x:t>항목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>01 MySQL 기반
-RDBMS 활용과 JDBC</x:t>
-  </x:si>
-  <x:si>
-    <x:t>01 DBMS 개요, 설치, 전체 운영 실습</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1438,7 +1438,7 @@
   <x:dimension ref="A1:F17"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <x:selection activeCell="C9" activeCellId="0" sqref="C9:C9"/>
+      <x:selection activeCell="G16" activeCellId="0" sqref="G16:G16"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9" defaultRowHeight="16.39999999999999857891"/>
@@ -1451,7 +1451,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:6" ht="19.25">
       <x:c r="A1" s="9" t="s">
-        <x:v>29</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B1" s="10"/>
       <x:c r="C1" s="10"/>
@@ -1461,7 +1461,7 @@
     </x:row>
     <x:row r="2" spans="1:6">
       <x:c r="A2" s="11" t="s">
-        <x:v>24</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B2" s="12"/>
       <x:c r="C2" s="12"/>
@@ -1471,13 +1471,13 @@
     </x:row>
     <x:row r="3" spans="1:6" ht="27" customHeight="1">
       <x:c r="A3" s="13" t="s">
-        <x:v>25</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B3" s="14"/>
       <x:c r="C3" s="14"/>
       <x:c r="D3" s="15"/>
       <x:c r="E3" s="16" t="s">
-        <x:v>36</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F3" s="16"/>
     </x:row>
@@ -1486,16 +1486,16 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="B4" s="1" t="s">
-        <x:v>40</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C4" s="2" t="s">
-        <x:v>39</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="D4" s="3" t="s">
         <x:v>38</x:v>
       </x:c>
       <x:c r="E4" s="2" t="s">
-        <x:v>39</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="F4" s="3" t="s">
         <x:v>38</x:v>
@@ -1503,151 +1503,151 @@
     </x:row>
     <x:row r="5" spans="1:6">
       <x:c r="A5" s="17" t="s">
-        <x:v>41</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="B5" s="4" t="s">
-        <x:v>42</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C5" s="5"/>
       <x:c r="D5" s="6"/>
       <x:c r="E5" s="7" t="s">
-        <x:v>0</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F5" s="8" t="s">
-        <x:v>17</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:6">
       <x:c r="A6" s="17"/>
       <x:c r="B6" s="4" t="s">
-        <x:v>33</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="C6" s="5"/>
       <x:c r="D6" s="6"/>
       <x:c r="E6" s="7" t="s">
-        <x:v>13</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F6" s="8" t="s">
-        <x:v>10</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:6">
       <x:c r="A7" s="17"/>
       <x:c r="B7" s="4" t="s">
-        <x:v>27</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C7" s="5"/>
       <x:c r="D7" s="6"/>
       <x:c r="E7" s="7" t="s">
-        <x:v>20</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F7" s="8" t="s">
-        <x:v>11</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:6">
       <x:c r="A8" s="17"/>
       <x:c r="B8" s="4" t="s">
-        <x:v>28</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C8" s="5"/>
       <x:c r="D8" s="6"/>
       <x:c r="E8" s="7" t="s">
-        <x:v>22</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F8" s="8" t="s">
-        <x:v>5</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:6">
       <x:c r="A9" s="17"/>
       <x:c r="B9" s="4" t="s">
-        <x:v>30</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C9" s="5"/>
       <x:c r="D9" s="6"/>
       <x:c r="E9" s="7" t="s">
-        <x:v>15</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F9" s="8" t="s">
-        <x:v>16</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:6">
       <x:c r="A10" s="17"/>
       <x:c r="B10" s="4" t="s">
-        <x:v>8</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C10" s="5"/>
       <x:c r="D10" s="6"/>
       <x:c r="E10" s="7" t="s">
-        <x:v>2</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F10" s="8" t="s">
-        <x:v>14</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:6">
       <x:c r="A11" s="17"/>
       <x:c r="B11" s="4" t="s">
-        <x:v>35</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C11" s="5"/>
       <x:c r="D11" s="6"/>
       <x:c r="E11" s="7" t="s">
-        <x:v>7</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F11" s="8" t="s">
-        <x:v>9</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:6">
       <x:c r="A12" s="17"/>
       <x:c r="B12" s="4" t="s">
-        <x:v>32</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="C12" s="5"/>
       <x:c r="D12" s="6"/>
       <x:c r="E12" s="7" t="s">
-        <x:v>18</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F12" s="8" t="s">
-        <x:v>3</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:6">
       <x:c r="A13" s="17" t="s">
-        <x:v>31</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B13" s="4" t="s">
-        <x:v>26</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C13" s="5"/>
       <x:c r="D13" s="6"/>
       <x:c r="E13" s="7" t="s">
-        <x:v>4</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F13" s="8" t="s">
-        <x:v>19</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:6">
       <x:c r="A14" s="17"/>
       <x:c r="B14" s="4" t="s">
-        <x:v>21</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C14" s="5"/>
       <x:c r="D14" s="6"/>
       <x:c r="E14" s="7" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="F14" s="8" t="s">
         <x:v>12</x:v>
-      </x:c>
-      <x:c r="F14" s="8" t="s">
-        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:6">
       <x:c r="A15" s="18" t="s">
-        <x:v>23</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B15" s="18"/>
       <x:c r="C15" s="18"/>
@@ -1657,7 +1657,7 @@
     </x:row>
     <x:row r="16" spans="1:6">
       <x:c r="A16" s="19" t="s">
-        <x:v>34</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="B16" s="19"/>
       <x:c r="C16" s="19"/>
@@ -1667,7 +1667,7 @@
     </x:row>
     <x:row r="17" spans="1:6">
       <x:c r="A17" s="20" t="s">
-        <x:v>6</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B17" s="20"/>
       <x:c r="C17" s="20"/>
@@ -1687,7 +1687,7 @@
     <x:mergeCell ref="A16:F16"/>
     <x:mergeCell ref="A17:F17"/>
   </x:mergeCells>
-  <x:pageMargins left="0.69986110925674438477" right="0.69986110925674438477" top="0.75" bottom="0.75" header="0.30000001192092895508" footer="0.30000001192092895508"/>
+  <x:pageMargins left="0.69972223043441772461" right="0.69972223043441772461" top="0.75" bottom="0.75" header="0.30000001192092895508" footer="0.30000001192092895508"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1"/>
   <x:legacyDrawing r:id="rId1"/>
